--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -540,10 +540,10 @@
         <v>5.264918</v>
       </c>
       <c r="I2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J2">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>29.01953304682399</v>
+        <v>4.780548468954444</v>
       </c>
       <c r="R2">
-        <v>261.175797421416</v>
+        <v>43.02493622059</v>
       </c>
       <c r="S2">
-        <v>0.1083762389050867</v>
+        <v>0.02847271815842944</v>
       </c>
       <c r="T2">
-        <v>0.1083762389050867</v>
+        <v>0.02847271815842944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.264918</v>
       </c>
       <c r="I3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J3">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
         <v>71.28809652276178</v>
@@ -632,10 +632,10 @@
         <v>641.5928687048561</v>
       </c>
       <c r="S3">
-        <v>0.266232256989582</v>
+        <v>0.4245884951329531</v>
       </c>
       <c r="T3">
-        <v>0.266232256989582</v>
+        <v>0.424588495132953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.264918</v>
       </c>
       <c r="I4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764959</v>
       </c>
       <c r="J4">
-        <v>0.5110994274238188</v>
+        <v>0.6142318033764957</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>36.547707672074</v>
+        <v>27.06042371454333</v>
       </c>
       <c r="R4">
-        <v>328.929369048666</v>
+        <v>243.54381343089</v>
       </c>
       <c r="S4">
-        <v>0.1364909315291501</v>
+        <v>0.1611705900851133</v>
       </c>
       <c r="T4">
-        <v>0.1364909315291501</v>
+        <v>0.1611705900851133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H5">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J5">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>27.759112143792</v>
+        <v>3.002422785017222</v>
       </c>
       <c r="R5">
-        <v>249.832009294128</v>
+        <v>27.021805065155</v>
       </c>
       <c r="S5">
-        <v>0.1036690757440685</v>
+        <v>0.01788228658393649</v>
       </c>
       <c r="T5">
-        <v>0.1036690757440685</v>
+        <v>0.01788228658393649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H6">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J6">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
-        <v>68.19180249040534</v>
+        <v>44.7724788673169</v>
       </c>
       <c r="R6">
-        <v>613.7262224136481</v>
+        <v>402.9523098058521</v>
       </c>
       <c r="S6">
-        <v>0.2546688489488802</v>
+        <v>0.2666627438926821</v>
       </c>
       <c r="T6">
-        <v>0.2546688489488802</v>
+        <v>0.266662743892682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.678748</v>
+        <v>1.102210333333334</v>
       </c>
       <c r="H7">
-        <v>5.036244</v>
+        <v>3.306631</v>
       </c>
       <c r="I7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="J7">
-        <v>0.4889005725761812</v>
+        <v>0.3857681966235041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>34.960311533292</v>
+        <v>16.99529525961167</v>
       </c>
       <c r="R7">
-        <v>314.642803799628</v>
+        <v>152.957657336505</v>
       </c>
       <c r="S7">
-        <v>0.1305626478832325</v>
+        <v>0.1012231661468855</v>
       </c>
       <c r="T7">
-        <v>0.1305626478832326</v>
+        <v>0.1012231661468855</v>
       </c>
     </row>
   </sheetData>
